--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227849.7214394365</v>
+        <v>217839.2785443561</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14857516.42777935</v>
+        <v>14857516.42777936</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.26683315033891</v>
+        <v>18.68867339138488</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="D2" t="n">
-        <v>18.68867339138402</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.26683315033891</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>19.29515484316843</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>31.26683315033891</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>31.26683315033891</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8.244671795650397</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.53982663881851</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>31.26683315033891</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>31.26683315033929</v>
       </c>
     </row>
     <row r="4">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>33.05581137020575</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="G5" t="n">
-        <v>33.05581137020575</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>37.52930446208646</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,61 +989,61 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>33.05581137020576</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>37.52930446208646</v>
-      </c>
-      <c r="H6" t="n">
-        <v>37.52930446208646</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>34.25063875717578</v>
-      </c>
-      <c r="S6" t="n">
-        <v>36.33447707511644</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>32.92729682831164</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>40.45816317064483</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.530866342333198</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>45.40562735059407</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>45.40562735059407</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>3.748906304207694</v>
       </c>
       <c r="R9" t="n">
-        <v>33.24871511996928</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>45.40562735059407</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>45.40562735059407</v>
       </c>
       <c r="U9" t="n">
-        <v>45.40562735059407</v>
+        <v>36.24437026619552</v>
       </c>
       <c r="V9" t="n">
-        <v>2.995655146226266</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1.468277882965447</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.468277882965447</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G11" t="n">
-        <v>219.5565574740962</v>
+        <v>91.13088952452651</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>96.78758242229657</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>23.20403983092403</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>56.93642863171359</v>
       </c>
     </row>
     <row r="13">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>31.91942736361617</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>78.28520899421817</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.43258009724633</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.352495282391885</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.150849970123488</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="E14" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="F14" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G14" t="n">
-        <v>161.483645379382</v>
+        <v>193.3854158231837</v>
       </c>
       <c r="H14" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90177044380179</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>154.7508334693185</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3283754674364</v>
+        <v>113.3537734891638</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>23.20403983092346</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>78.28520899421808</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.43258009724633</v>
       </c>
       <c r="J16" t="n">
-        <v>7.352495282391892</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.150849970123495</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>94.78855424673355</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>193.3854158231838</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90177044380178</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>219.5565574740961</v>
       </c>
       <c r="V17" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>64.88581197849481</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>75.98801171008384</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.70128436951478</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>129.5998097586234</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>33.32143611366072</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>219.5565574740961</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31.9017704438018</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>64.88581197849489</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>59.22911908072469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>41.49176570559234</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.70128436951479</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.82588865527181</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>93.54188491598607</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>26.2667358705163</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>191.2211343439797</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>202.7930698507906</v>
       </c>
       <c r="H23" t="n">
-        <v>146.5148369447966</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.2775313912475</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
@@ -2411,10 +2411,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>192.9489355813801</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>22.06468129387046</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>33.29661725718388</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
-        <v>255.7849588823067</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>36.02510110790831</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.39812025525838</v>
+        <v>54.76891955300673</v>
       </c>
       <c r="T26" t="n">
         <v>210.2775313912475</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>24.06090502291296</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>59.36143752954905</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>107.8702810193205</v>
@@ -2699,10 +2699,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>44.03190971264875</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.88166847950853</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>148.4772424519394</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U29" t="n">
         <v>254.3124908149276</v>
@@ -2854,10 +2854,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>338.3055529899871</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>23.77799451897956</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>195.2992474636072</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368965</v>
+        <v>160.9646836031011</v>
       </c>
       <c r="W30" t="n">
         <v>211.1008365810345</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>28.59355890864101</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.88166847950853</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>201.1888167328662</v>
+        <v>195.4022294214745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,13 +3113,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>34.08873677909637</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U33" t="n">
         <v>195.2992474636072</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -3176,7 +3176,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.8079400398083</v>
+        <v>26.90636356563181</v>
       </c>
     </row>
     <row r="34">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>42.06564080243151</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>255.7849588823068</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>205.2753752298585</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4235511641288</v>
+        <v>191.8024358057407</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3350,16 +3350,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>48.64285346914208</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>195.2992474636072</v>
@@ -3407,10 +3407,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>43.18757041245772</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.03190971264875</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>48.83113304013385</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>191.80243580574</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>114.0083697224743</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>36.14522282805453</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U39" t="n">
         <v>195.2992474636072</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>96.2617392947167</v>
       </c>
     </row>
     <row r="40">
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>259.4219021912133</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>28.59355890864102</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>116.1775777146253</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>7.0217601909434</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>77.35380156413922</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>195.2992474636072</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>92.69689074794553</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>135.1572311320988</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5832153864156</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>53.91624944032937</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4235511641288</v>
+        <v>387.5482491943551</v>
       </c>
       <c r="H44" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.89627765300733</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4061,19 +4061,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0.410366858644208</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U45" t="n">
         <v>195.2992474636072</v>
@@ -4118,13 +4118,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.08405069248845</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>40.93940591867479</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.4957219934231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.96145426992907</v>
+        <v>34.08400639984462</v>
       </c>
       <c r="C2" t="n">
-        <v>52.96145426992907</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="D2" t="n">
-        <v>34.0840063998442</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="E2" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="F2" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="G2" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="H2" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="I2" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="J2" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="K2" t="n">
-        <v>3.586988368706356</v>
+        <v>3.586988368706654</v>
       </c>
       <c r="L2" t="n">
-        <v>19.87903646971973</v>
+        <v>19.87903646972036</v>
       </c>
       <c r="M2" t="n">
-        <v>50.83320128855524</v>
+        <v>50.83320128855627</v>
       </c>
       <c r="N2" t="n">
-        <v>81.78736610739077</v>
+        <v>81.78736610739217</v>
       </c>
       <c r="O2" t="n">
-        <v>107.8531422385445</v>
+        <v>107.8531422385462</v>
       </c>
       <c r="P2" t="n">
-        <v>116.1267737655632</v>
+        <v>116.1267737655653</v>
       </c>
       <c r="Q2" t="n">
-        <v>116.1267737655632</v>
+        <v>116.1267737655653</v>
       </c>
       <c r="R2" t="n">
-        <v>116.1267737655632</v>
+        <v>116.1267737655653</v>
       </c>
       <c r="S2" t="n">
-        <v>116.1267737655632</v>
+        <v>116.1267737655653</v>
       </c>
       <c r="T2" t="n">
-        <v>116.1267737655632</v>
+        <v>116.1267737655653</v>
       </c>
       <c r="U2" t="n">
-        <v>84.54411401774615</v>
+        <v>84.54411401774783</v>
       </c>
       <c r="V2" t="n">
-        <v>84.54411401774615</v>
+        <v>52.96145426993036</v>
       </c>
       <c r="W2" t="n">
-        <v>84.54411401774615</v>
+        <v>52.96145426993036</v>
       </c>
       <c r="X2" t="n">
-        <v>84.54411401774615</v>
+        <v>52.96145426993036</v>
       </c>
       <c r="Y2" t="n">
-        <v>84.54411401774615</v>
+        <v>52.96145426993036</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.66666614766129</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="C3" t="n">
-        <v>65.66666614766129</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="D3" t="n">
-        <v>65.66666614766129</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="E3" t="n">
-        <v>65.66666614766129</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="F3" t="n">
-        <v>65.66666614766129</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="G3" t="n">
-        <v>34.0840063998442</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="H3" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="I3" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="J3" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="K3" t="n">
-        <v>7.908332877647203</v>
+        <v>7.908332877647418</v>
       </c>
       <c r="L3" t="n">
-        <v>14.17114023954383</v>
+        <v>14.17114023954401</v>
       </c>
       <c r="M3" t="n">
-        <v>45.12530505837935</v>
+        <v>45.12530505837991</v>
       </c>
       <c r="N3" t="n">
-        <v>76.07946987721488</v>
+        <v>76.07946987721581</v>
       </c>
       <c r="O3" t="n">
-        <v>107.0336346960504</v>
+        <v>107.0336346960517</v>
       </c>
       <c r="P3" t="n">
-        <v>125.0673326013556</v>
+        <v>125.0673326013572</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.0673326013556</v>
+        <v>116.7393812926194</v>
       </c>
       <c r="R3" t="n">
-        <v>125.0673326013556</v>
+        <v>116.7393812926194</v>
       </c>
       <c r="S3" t="n">
-        <v>125.0673326013556</v>
+        <v>116.7393812926194</v>
       </c>
       <c r="T3" t="n">
-        <v>97.24932589547836</v>
+        <v>116.7393812926194</v>
       </c>
       <c r="U3" t="n">
-        <v>65.66666614766129</v>
+        <v>116.7393812926194</v>
       </c>
       <c r="V3" t="n">
-        <v>65.66666614766129</v>
+        <v>85.15672154480193</v>
       </c>
       <c r="W3" t="n">
-        <v>65.66666614766129</v>
+        <v>85.15672154480193</v>
       </c>
       <c r="X3" t="n">
-        <v>65.66666614766129</v>
+        <v>53.57406179698445</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.66666614766129</v>
+        <v>21.99140204916698</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="C4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="D4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="E4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="F4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="G4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="H4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="I4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="J4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="K4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="L4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="M4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="N4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="O4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="P4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="R4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="S4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="T4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="U4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="V4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="W4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="X4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.501346652027113</v>
+        <v>2.501346652027144</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112.208829502804</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="C5" t="n">
-        <v>112.208829502804</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="D5" t="n">
-        <v>112.208829502804</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="E5" t="n">
-        <v>112.208829502804</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="F5" t="n">
-        <v>112.208829502804</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="G5" t="n">
-        <v>78.81912104805069</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H5" t="n">
-        <v>40.9107327025088</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I5" t="n">
         <v>3.002344356966917</v>
@@ -4576,7 +4576,7 @@
         <v>30.4433262173086</v>
       </c>
       <c r="M5" t="n">
-        <v>67.59733763477419</v>
+        <v>67.59733763477414</v>
       </c>
       <c r="N5" t="n">
         <v>104.7513490522398</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.81912104805069</v>
+        <v>74.3004411572621</v>
       </c>
       <c r="C6" t="n">
-        <v>78.81912104805069</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="D6" t="n">
-        <v>78.81912104805069</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="E6" t="n">
-        <v>78.81912104805069</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="F6" t="n">
-        <v>78.81912104805069</v>
+        <v>36.39205281172021</v>
       </c>
       <c r="G6" t="n">
-        <v>40.9107327025088</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H6" t="n">
         <v>3.002344356966917</v>
@@ -4652,7 +4652,7 @@
         <v>11.45991954906474</v>
       </c>
       <c r="L6" t="n">
-        <v>41.59280229228324</v>
+        <v>17.44797966023127</v>
       </c>
       <c r="M6" t="n">
         <v>54.60199107769687</v>
@@ -4670,28 +4670,28 @@
         <v>150.1172178483459</v>
       </c>
       <c r="R6" t="n">
-        <v>115.5206130431178</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="S6" t="n">
-        <v>78.81912104805069</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="T6" t="n">
-        <v>78.81912104805069</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="U6" t="n">
-        <v>78.81912104805069</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="V6" t="n">
-        <v>78.81912104805069</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="W6" t="n">
-        <v>78.81912104805069</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="X6" t="n">
-        <v>78.81912104805069</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.81912104805069</v>
+        <v>112.208829502804</v>
       </c>
     </row>
     <row r="7">
@@ -4795,28 +4795,28 @@
         <v>44.49928167354736</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49928167354736</v>
+        <v>11.23938588737399</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49928167354736</v>
+        <v>11.23938588737399</v>
       </c>
       <c r="I8" t="n">
-        <v>3.632450188047526</v>
+        <v>11.23938588737399</v>
       </c>
       <c r="J8" t="n">
         <v>3.632450188047526</v>
       </c>
       <c r="K8" t="n">
-        <v>13.00760177093454</v>
+        <v>13.00760177093458</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58351986958229</v>
+        <v>39.58351986958232</v>
       </c>
       <c r="M8" t="n">
-        <v>81.98047155039913</v>
+        <v>81.9804715503991</v>
       </c>
       <c r="N8" t="n">
-        <v>126.9320426274873</v>
+        <v>126.9320426274872</v>
       </c>
       <c r="O8" t="n">
         <v>163.9777557138802</v>
@@ -4834,7 +4834,7 @@
         <v>90.36355172465248</v>
       </c>
       <c r="T8" t="n">
-        <v>44.49928167354736</v>
+        <v>90.36355172465248</v>
       </c>
       <c r="U8" t="n">
         <v>44.49928167354736</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.632450188047526</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="C9" t="n">
-        <v>3.632450188047526</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="D9" t="n">
-        <v>3.632450188047526</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="E9" t="n">
-        <v>3.632450188047526</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="F9" t="n">
-        <v>3.632450188047526</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="G9" t="n">
         <v>3.632450188047526</v>
@@ -4892,7 +4892,7 @@
         <v>48.27145091008538</v>
       </c>
       <c r="M9" t="n">
-        <v>71.45797305435997</v>
+        <v>93.2230219871735</v>
       </c>
       <c r="N9" t="n">
         <v>116.4095441314481</v>
@@ -4907,28 +4907,28 @@
         <v>177.835735357722</v>
       </c>
       <c r="R9" t="n">
-        <v>144.2511746304803</v>
+        <v>177.835735357722</v>
       </c>
       <c r="S9" t="n">
-        <v>98.38690457937521</v>
+        <v>177.835735357722</v>
       </c>
       <c r="T9" t="n">
-        <v>52.52263452827009</v>
+        <v>131.9714653066169</v>
       </c>
       <c r="U9" t="n">
-        <v>6.658364477164966</v>
+        <v>95.36099029025777</v>
       </c>
       <c r="V9" t="n">
-        <v>3.632450188047526</v>
+        <v>95.36099029025777</v>
       </c>
       <c r="W9" t="n">
-        <v>3.632450188047526</v>
+        <v>95.36099029025777</v>
       </c>
       <c r="X9" t="n">
-        <v>3.632450188047526</v>
+        <v>95.36099029025777</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.632450188047526</v>
+        <v>95.36099029025777</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="C10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="D10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="E10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="F10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="G10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="H10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="I10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="J10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="K10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="L10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="M10" t="n">
         <v>3.632450188047526</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>461.1131255556978</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="C11" t="n">
-        <v>461.1131255556978</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="D11" t="n">
-        <v>461.1131255556978</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="E11" t="n">
-        <v>461.1131255556978</v>
+        <v>331.3902286369405</v>
       </c>
       <c r="F11" t="n">
-        <v>461.1131255556978</v>
+        <v>109.6159281580555</v>
       </c>
       <c r="G11" t="n">
-        <v>239.3388250768127</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H11" t="n">
         <v>17.56452459792769</v>
@@ -5041,52 +5041,52 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422702</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474253</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L11" t="n">
-        <v>271.1830965723308</v>
+        <v>271.1830965723306</v>
       </c>
       <c r="M11" t="n">
-        <v>420.4501281543858</v>
+        <v>420.4501281543855</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547427</v>
+        <v>574.0010487547424</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809667</v>
+        <v>713.5940480809663</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598412</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="S11" t="n">
-        <v>774.9388295947107</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="T11" t="n">
-        <v>558.8783603256943</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="U11" t="n">
-        <v>461.1131255556978</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="V11" t="n">
-        <v>461.1131255556978</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="W11" t="n">
-        <v>461.1131255556978</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="X11" t="n">
-        <v>461.1131255556978</v>
+        <v>553.1645291158255</v>
       </c>
       <c r="Y11" t="n">
-        <v>461.1131255556978</v>
+        <v>553.1645291158255</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.56452459792769</v>
+        <v>361.1934042607059</v>
       </c>
       <c r="C12" t="n">
-        <v>17.56452459792769</v>
+        <v>361.1934042607059</v>
       </c>
       <c r="D12" t="n">
-        <v>17.56452459792769</v>
+        <v>244.2962464800983</v>
       </c>
       <c r="E12" t="n">
-        <v>17.56452459792769</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="F12" t="n">
-        <v>17.56452459792769</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="G12" t="n">
         <v>17.56452459792769</v>
@@ -5144,28 +5144,28 @@
         <v>715.3219541700623</v>
       </c>
       <c r="R12" t="n">
-        <v>702.3665110839293</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S12" t="n">
-        <v>608.329838238913</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T12" t="n">
-        <v>452.0158650375812</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="U12" t="n">
-        <v>254.7144756765343</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="V12" t="n">
-        <v>41.00294866956813</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="W12" t="n">
-        <v>17.56452459792769</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="X12" t="n">
-        <v>17.56452459792769</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.56452459792769</v>
+        <v>501.4964368962926</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="C13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="D13" t="n">
-        <v>201.4739027533382</v>
+        <v>178.4753397296082</v>
       </c>
       <c r="E13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G13" t="n">
-        <v>201.4739027533382</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H13" t="n">
-        <v>122.3979340723097</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I13" t="n">
-        <v>24.99128750943465</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J13" t="n">
         <v>17.56452459792769</v>
@@ -5220,31 +5220,31 @@
         <v>210.7171855514427</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.4739027533382</v>
+        <v>210.7171855514427</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="C14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="D14" t="n">
-        <v>878.2262298963847</v>
+        <v>656.4519294174995</v>
       </c>
       <c r="E14" t="n">
-        <v>656.4519294174996</v>
+        <v>434.6776289386145</v>
       </c>
       <c r="F14" t="n">
-        <v>434.6776289386146</v>
+        <v>212.9033284597295</v>
       </c>
       <c r="G14" t="n">
-        <v>271.5628356261075</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H14" t="n">
-        <v>49.78853514722244</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I14" t="n">
         <v>17.56452459792769</v>
       </c>
       <c r="J14" t="n">
-        <v>61.76566646422701</v>
+        <v>61.76566646422702</v>
       </c>
       <c r="K14" t="n">
-        <v>148.5608200474251</v>
+        <v>148.5608200474252</v>
       </c>
       <c r="L14" t="n">
         <v>271.1830965723307</v>
       </c>
       <c r="M14" t="n">
-        <v>420.4501281543858</v>
+        <v>420.4501281543859</v>
       </c>
       <c r="N14" t="n">
-        <v>574.0010487547426</v>
+        <v>574.0010487547428</v>
       </c>
       <c r="O14" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809668</v>
       </c>
       <c r="P14" t="n">
-        <v>818.7605380598411</v>
+        <v>818.7605380598412</v>
       </c>
       <c r="Q14" t="n">
+        <v>878.2262298963847</v>
+      </c>
+      <c r="R14" t="n">
         <v>878.2262298963846</v>
       </c>
-      <c r="R14" t="n">
-        <v>878.2262298963847</v>
-      </c>
       <c r="S14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="T14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="U14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="V14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="W14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="X14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="Y14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
     </row>
     <row r="15">
@@ -5357,43 +5357,43 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J15" t="n">
-        <v>36.26919386777739</v>
+        <v>36.2691938677774</v>
       </c>
       <c r="K15" t="n">
-        <v>99.89115689943301</v>
+        <v>99.89115689943307</v>
       </c>
       <c r="L15" t="n">
-        <v>204.1993668012279</v>
+        <v>204.1993668012281</v>
       </c>
       <c r="M15" t="n">
-        <v>333.7616594659742</v>
+        <v>333.7616594659743</v>
       </c>
       <c r="N15" t="n">
-        <v>472.5885816837999</v>
+        <v>472.5885816838001</v>
       </c>
       <c r="O15" t="n">
-        <v>590.589076416899</v>
+        <v>590.5890764168994</v>
       </c>
       <c r="P15" t="n">
-        <v>677.4649847190638</v>
+        <v>677.4649847190642</v>
       </c>
       <c r="Q15" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="R15" t="n">
-        <v>702.3665110839287</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S15" t="n">
-        <v>608.3298382389124</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T15" t="n">
-        <v>452.0158650375806</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="U15" t="n">
-        <v>254.7144756765337</v>
+        <v>444.5092198685651</v>
       </c>
       <c r="V15" t="n">
-        <v>41.00294866956756</v>
+        <v>230.7976928615989</v>
       </c>
       <c r="W15" t="n">
         <v>17.56452459792769</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201.4739027533381</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="C16" t="n">
-        <v>201.4739027533381</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="D16" t="n">
-        <v>201.4739027533381</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="E16" t="n">
-        <v>201.4739027533381</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="F16" t="n">
-        <v>201.4739027533381</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="G16" t="n">
-        <v>201.4739027533381</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="H16" t="n">
-        <v>122.3979340723097</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="I16" t="n">
-        <v>24.99128750943466</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J16" t="n">
         <v>17.56452459792769</v>
       </c>
       <c r="K16" t="n">
-        <v>37.55032788682517</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L16" t="n">
-        <v>75.23712329476713</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M16" t="n">
-        <v>116.2921695945569</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N16" t="n">
-        <v>159.5533166477871</v>
+        <v>159.5533166477872</v>
       </c>
       <c r="O16" t="n">
         <v>191.2851869593632</v>
       </c>
       <c r="P16" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V16" t="n">
-        <v>201.4739027533381</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W16" t="n">
-        <v>201.4739027533381</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="X16" t="n">
-        <v>201.4739027533381</v>
+        <v>114.9711711608028</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.4739027533381</v>
+        <v>114.9711711608028</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.78853514722242</v>
+        <v>656.4519294174995</v>
       </c>
       <c r="C17" t="n">
-        <v>49.78853514722242</v>
+        <v>461.1131255556977</v>
       </c>
       <c r="D17" t="n">
-        <v>49.78853514722242</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="E17" t="n">
-        <v>49.78853514722242</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="F17" t="n">
-        <v>49.78853514722242</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="G17" t="n">
-        <v>49.78853514722242</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H17" t="n">
-        <v>49.78853514722242</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I17" t="n">
         <v>17.56452459792769</v>
       </c>
       <c r="J17" t="n">
-        <v>61.76566646422691</v>
+        <v>61.76566646422701</v>
       </c>
       <c r="K17" t="n">
-        <v>148.560820047425</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L17" t="n">
-        <v>271.1830965723305</v>
+        <v>271.1830965723306</v>
       </c>
       <c r="M17" t="n">
         <v>420.4501281543855</v>
       </c>
       <c r="N17" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547424</v>
       </c>
       <c r="O17" t="n">
-        <v>713.5940480809664</v>
+        <v>713.5940480809663</v>
       </c>
       <c r="P17" t="n">
         <v>818.7605380598411</v>
       </c>
       <c r="Q17" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R17" t="n">
         <v>878.2262298963846</v>
       </c>
       <c r="S17" t="n">
-        <v>774.9388295947106</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="T17" t="n">
-        <v>558.8783603256943</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="U17" t="n">
-        <v>337.1040598468093</v>
+        <v>656.4519294174995</v>
       </c>
       <c r="V17" t="n">
-        <v>115.3297593679243</v>
+        <v>656.4519294174995</v>
       </c>
       <c r="W17" t="n">
-        <v>49.78853514722242</v>
+        <v>656.4519294174995</v>
       </c>
       <c r="X17" t="n">
-        <v>49.78853514722242</v>
+        <v>656.4519294174995</v>
       </c>
       <c r="Y17" t="n">
-        <v>49.78853514722242</v>
+        <v>656.4519294174995</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>415.6169618983057</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C18" t="n">
-        <v>281.6218906472514</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D18" t="n">
-        <v>281.6218906472514</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E18" t="n">
-        <v>204.8663232633283</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F18" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G18" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H18" t="n">
-        <v>32.41430678935676</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I18" t="n">
         <v>17.56452459792769</v>
       </c>
       <c r="J18" t="n">
-        <v>36.2691938677774</v>
+        <v>36.26919386777739</v>
       </c>
       <c r="K18" t="n">
-        <v>99.89115689943307</v>
+        <v>99.89115689943301</v>
       </c>
       <c r="L18" t="n">
-        <v>204.1993668012281</v>
+        <v>204.1993668012279</v>
       </c>
       <c r="M18" t="n">
-        <v>333.7616594659743</v>
+        <v>333.7616594659742</v>
       </c>
       <c r="N18" t="n">
-        <v>472.5885816838001</v>
+        <v>472.5885816837999</v>
       </c>
       <c r="O18" t="n">
-        <v>590.5890764168994</v>
+        <v>590.589076416899</v>
       </c>
       <c r="P18" t="n">
-        <v>677.4649847190642</v>
+        <v>677.4649847190638</v>
       </c>
       <c r="Q18" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="R18" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="S18" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="T18" t="n">
-        <v>715.3219541700623</v>
+        <v>559.0079809687301</v>
       </c>
       <c r="U18" t="n">
-        <v>715.3219541700623</v>
+        <v>361.7065916076832</v>
       </c>
       <c r="V18" t="n">
-        <v>715.3219541700623</v>
+        <v>230.7976928615989</v>
       </c>
       <c r="W18" t="n">
-        <v>715.3219541700623</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X18" t="n">
-        <v>715.3219541700623</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y18" t="n">
-        <v>555.9199945338923</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="C19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="D19" t="n">
-        <v>17.56452459792769</v>
+        <v>51.22254087435266</v>
       </c>
       <c r="E19" t="n">
         <v>17.56452459792769</v>
@@ -5676,49 +5676,49 @@
         <v>17.56452459792769</v>
       </c>
       <c r="K19" t="n">
-        <v>37.55032788682519</v>
+        <v>37.55032788682517</v>
       </c>
       <c r="L19" t="n">
-        <v>75.23712329476716</v>
+        <v>75.23712329476713</v>
       </c>
       <c r="M19" t="n">
-        <v>116.292169594557</v>
+        <v>116.2921695945569</v>
       </c>
       <c r="N19" t="n">
-        <v>159.5533166477872</v>
+        <v>159.5533166477871</v>
       </c>
       <c r="O19" t="n">
         <v>191.2851869593632</v>
       </c>
       <c r="P19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="R19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="S19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="T19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="U19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="V19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="W19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="X19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514426</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.5628356261075</v>
+        <v>493.3371361049924</v>
       </c>
       <c r="C20" t="n">
-        <v>49.78853514722245</v>
+        <v>271.5628356261074</v>
       </c>
       <c r="D20" t="n">
-        <v>49.78853514722245</v>
+        <v>271.5628356261074</v>
       </c>
       <c r="E20" t="n">
-        <v>49.78853514722245</v>
+        <v>271.5628356261074</v>
       </c>
       <c r="F20" t="n">
-        <v>49.78853514722245</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="G20" t="n">
-        <v>49.78853514722245</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="H20" t="n">
-        <v>49.78853514722245</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="I20" t="n">
         <v>17.56452459792769</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422725</v>
+        <v>61.76566646422704</v>
       </c>
       <c r="K20" t="n">
-        <v>148.5608200474255</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L20" t="n">
-        <v>271.1830965723309</v>
+        <v>271.1830965723306</v>
       </c>
       <c r="M20" t="n">
-        <v>420.4501281543858</v>
+        <v>420.4501281543855</v>
       </c>
       <c r="N20" t="n">
-        <v>574.0010487547427</v>
+        <v>574.0010487547424</v>
       </c>
       <c r="O20" t="n">
         <v>713.5940480809666</v>
       </c>
       <c r="P20" t="n">
-        <v>818.760538059841</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q20" t="n">
         <v>878.2262298963846</v>
@@ -5782,22 +5782,22 @@
         <v>774.9388295947106</v>
       </c>
       <c r="T20" t="n">
-        <v>774.9388295947106</v>
+        <v>558.8783603256943</v>
       </c>
       <c r="U20" t="n">
-        <v>774.9388295947106</v>
+        <v>558.8783603256943</v>
       </c>
       <c r="V20" t="n">
-        <v>774.9388295947106</v>
+        <v>493.3371361049924</v>
       </c>
       <c r="W20" t="n">
-        <v>774.9388295947106</v>
+        <v>493.3371361049924</v>
       </c>
       <c r="X20" t="n">
-        <v>715.1114365838775</v>
+        <v>493.3371361049924</v>
       </c>
       <c r="Y20" t="n">
-        <v>493.3371361049925</v>
+        <v>493.3371361049924</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>254.7144756765337</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C21" t="n">
-        <v>254.7144756765337</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D21" t="n">
-        <v>137.8173178959262</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E21" t="n">
-        <v>137.8173178959262</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F21" t="n">
-        <v>137.8173178959262</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G21" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H21" t="n">
-        <v>32.41430678935677</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I21" t="n">
         <v>17.56452459792769</v>
       </c>
       <c r="J21" t="n">
-        <v>36.26919386777737</v>
+        <v>36.2691938677774</v>
       </c>
       <c r="K21" t="n">
-        <v>99.89115689943299</v>
+        <v>99.89115689943307</v>
       </c>
       <c r="L21" t="n">
-        <v>204.1993668012279</v>
+        <v>204.1993668012281</v>
       </c>
       <c r="M21" t="n">
-        <v>333.7616594659742</v>
+        <v>333.7616594659743</v>
       </c>
       <c r="N21" t="n">
-        <v>472.5885816837998</v>
+        <v>472.5885816838001</v>
       </c>
       <c r="O21" t="n">
-        <v>590.589076416899</v>
+        <v>590.5890764168994</v>
       </c>
       <c r="P21" t="n">
-        <v>677.4649847190638</v>
+        <v>677.4649847190642</v>
       </c>
       <c r="Q21" t="n">
-        <v>715.3219541700619</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="R21" t="n">
-        <v>702.3665110839287</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S21" t="n">
-        <v>608.3298382389124</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T21" t="n">
-        <v>452.0158650375806</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U21" t="n">
-        <v>254.7144756765337</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="V21" t="n">
-        <v>254.7144756765337</v>
+        <v>501.6104271630961</v>
       </c>
       <c r="W21" t="n">
-        <v>254.7144756765337</v>
+        <v>288.3772588994249</v>
       </c>
       <c r="X21" t="n">
-        <v>254.7144756765337</v>
+        <v>112.0512770383177</v>
       </c>
       <c r="Y21" t="n">
-        <v>254.7144756765337</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.56452459792769</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="C22" t="n">
-        <v>17.56452459792769</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="D22" t="n">
-        <v>17.56452459792769</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="E22" t="n">
-        <v>17.56452459792769</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="F22" t="n">
-        <v>17.56452459792769</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="G22" t="n">
         <v>17.56452459792769</v>
@@ -5913,49 +5913,49 @@
         <v>17.56452459792769</v>
       </c>
       <c r="K22" t="n">
-        <v>37.55032788682516</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L22" t="n">
-        <v>75.2371232947671</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M22" t="n">
-        <v>116.2921695945569</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N22" t="n">
-        <v>159.5533166477871</v>
+        <v>159.5533166477872</v>
       </c>
       <c r="O22" t="n">
-        <v>191.2851869593631</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P22" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R22" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S22" t="n">
-        <v>210.7171855514426</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T22" t="n">
-        <v>210.7171855514426</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="U22" t="n">
-        <v>210.7171855514426</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="V22" t="n">
-        <v>210.7171855514426</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="W22" t="n">
-        <v>210.7171855514426</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="X22" t="n">
-        <v>17.56452459792769</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.56452459792769</v>
+        <v>184.1851291165778</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>600.0790050110893</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="C23" t="n">
-        <v>600.0790050110893</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="D23" t="n">
-        <v>600.0790050110893</v>
+        <v>663.6159014793429</v>
       </c>
       <c r="E23" t="n">
-        <v>185.738789527986</v>
+        <v>663.6159014793429</v>
       </c>
       <c r="F23" t="n">
-        <v>185.738789527986</v>
+        <v>242.5854894330305</v>
       </c>
       <c r="G23" t="n">
-        <v>185.738789527986</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H23" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I23" t="n">
-        <v>37.74400473526225</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J23" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L23" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N23" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O23" t="n">
         <v>1464.838169622267</v>
       </c>
       <c r="P23" t="n">
-        <v>1687.808675484974</v>
+        <v>1687.808675484973</v>
       </c>
       <c r="Q23" t="n">
         <v>1835.740277181655</v>
@@ -6016,25 +6016,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S23" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T23" t="n">
-        <v>1590.558164392902</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U23" t="n">
-        <v>1333.67686053944</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V23" t="n">
-        <v>983.8393058759207</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="W23" t="n">
-        <v>600.0790050110893</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="X23" t="n">
-        <v>600.0790050110893</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="Y23" t="n">
-        <v>600.0790050110893</v>
+        <v>1068.079831386282</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>683.0535714964635</v>
+        <v>518.0889295920915</v>
       </c>
       <c r="C24" t="n">
-        <v>549.0585002454092</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="D24" t="n">
-        <v>432.1613424648016</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E24" t="n">
-        <v>311.6685264571296</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F24" t="n">
-        <v>202.7086466396342</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G24" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H24" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28095199337147</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J24" t="n">
         <v>98.39707907527369</v>
@@ -6101,19 +6101,19 @@
         <v>1426.912595986079</v>
       </c>
       <c r="U24" t="n">
-        <v>1232.014681257412</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V24" t="n">
-        <v>1232.014681257412</v>
+        <v>1207.353071988627</v>
       </c>
       <c r="W24" t="n">
-        <v>1018.781512993741</v>
+        <v>994.1199037249553</v>
       </c>
       <c r="X24" t="n">
-        <v>842.4555311326335</v>
+        <v>817.7939218638481</v>
       </c>
       <c r="Y24" t="n">
-        <v>683.0535714964635</v>
+        <v>658.3919622276782</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1346.088246826315</v>
+        <v>71.37695145969036</v>
       </c>
       <c r="C25" t="n">
-        <v>1346.088246826315</v>
+        <v>71.37695145969036</v>
       </c>
       <c r="D25" t="n">
-        <v>1346.088246826315</v>
+        <v>71.37695145969036</v>
       </c>
       <c r="E25" t="n">
-        <v>1346.088246826315</v>
+        <v>71.37695145969036</v>
       </c>
       <c r="F25" t="n">
-        <v>1346.088246826315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G25" t="n">
-        <v>1346.088246826315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H25" t="n">
-        <v>1346.088246826315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I25" t="n">
-        <v>1346.088246826315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J25" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K25" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L25" t="n">
-        <v>1519.788525527849</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M25" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N25" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O25" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P25" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U25" t="n">
-        <v>1604.456892161978</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V25" t="n">
-        <v>1346.088246826315</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W25" t="n">
-        <v>1346.088246826315</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="X25" t="n">
-        <v>1346.088246826315</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="Y25" t="n">
-        <v>1346.088246826315</v>
+        <v>71.37695145969036</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1189.621491340992</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="C26" t="n">
-        <v>1189.621491340992</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="D26" t="n">
-        <v>1189.621491340992</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="E26" t="n">
-        <v>1153.232500322903</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F26" t="n">
-        <v>732.2020882765901</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G26" t="n">
-        <v>325.7136527572681</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I26" t="n">
-        <v>37.74400473526202</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J26" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K26" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L26" t="n">
         <v>594.3775951131297</v>
@@ -6247,31 +6247,31 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q26" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R26" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S26" t="n">
-        <v>1802.959711252748</v>
+        <v>1831.878095800477</v>
       </c>
       <c r="T26" t="n">
-        <v>1590.558164392902</v>
+        <v>1619.476548940631</v>
       </c>
       <c r="U26" t="n">
-        <v>1590.558164392902</v>
+        <v>1619.476548940631</v>
       </c>
       <c r="V26" t="n">
-        <v>1590.558164392902</v>
+        <v>1269.638994277112</v>
       </c>
       <c r="W26" t="n">
-        <v>1590.558164392902</v>
+        <v>1269.638994277112</v>
       </c>
       <c r="X26" t="n">
-        <v>1590.558164392902</v>
+        <v>868.9955964460642</v>
       </c>
       <c r="Y26" t="n">
-        <v>1189.621491340992</v>
+        <v>868.9955964460642</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>623.88061763002</v>
+        <v>312.4566206003316</v>
       </c>
       <c r="C27" t="n">
-        <v>489.8855463789657</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="D27" t="n">
-        <v>372.9883885983581</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="E27" t="n">
         <v>252.4955725906861</v>
@@ -6296,16 +6296,16 @@
         <v>143.5356927731907</v>
       </c>
       <c r="G27" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H27" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J27" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K27" t="n">
         <v>232.7978194276822</v>
@@ -6347,10 +6347,10 @@
         <v>648.1845620976088</v>
       </c>
       <c r="X27" t="n">
-        <v>648.1845620976088</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y27" t="n">
-        <v>648.1845620976088</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.74400473526219</v>
+        <v>534.3793181946349</v>
       </c>
       <c r="C28" t="n">
-        <v>37.74400473526219</v>
+        <v>363.2859457563515</v>
       </c>
       <c r="D28" t="n">
-        <v>37.74400473526219</v>
+        <v>363.2859457563515</v>
       </c>
       <c r="E28" t="n">
-        <v>37.74400473526219</v>
+        <v>202.3751306246709</v>
       </c>
       <c r="F28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J28" t="n">
         <v>56.4452522174457</v>
@@ -6411,25 +6411,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S28" t="n">
-        <v>555.7431982281099</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T28" t="n">
-        <v>320.4873493363945</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U28" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V28" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W28" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X28" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.74400473526219</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>746.7440648035805</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="C29" t="n">
-        <v>746.7440648035805</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="D29" t="n">
-        <v>746.7440648035805</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="E29" t="n">
-        <v>746.7440648035805</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="F29" t="n">
         <v>325.7136527572681</v>
@@ -6463,19 +6463,19 @@
         <v>37.7440047352622</v>
       </c>
       <c r="J29" t="n">
-        <v>151.4749218512235</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987907</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L29" t="n">
-        <v>594.3775951131302</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N29" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O29" t="n">
         <v>1464.838169622267</v>
@@ -6493,22 +6493,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T29" t="n">
-        <v>1737.223224185394</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U29" t="n">
-        <v>1480.341920331931</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V29" t="n">
-        <v>1130.504365668412</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="W29" t="n">
-        <v>746.7440648035805</v>
+        <v>726.3570505883156</v>
       </c>
       <c r="X29" t="n">
-        <v>746.7440648035805</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="Y29" t="n">
-        <v>746.7440648035805</v>
+        <v>325.7136527572681</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>226.7268229214317</v>
+        <v>518.0889295920915</v>
       </c>
       <c r="C30" t="n">
-        <v>226.7268229214317</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="D30" t="n">
-        <v>226.7268229214317</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E30" t="n">
-        <v>226.7268229214317</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F30" t="n">
-        <v>202.7086466396342</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G30" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H30" t="n">
         <v>37.7440047352622</v>
@@ -6569,25 +6569,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S30" t="n">
-        <v>1341.182798307179</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T30" t="n">
-        <v>1186.671426824303</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U30" t="n">
-        <v>989.3994596893464</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V30" t="n">
-        <v>775.6879326823802</v>
+        <v>1067.05003935304</v>
       </c>
       <c r="W30" t="n">
-        <v>562.4547644187089</v>
+        <v>853.8168710893688</v>
       </c>
       <c r="X30" t="n">
-        <v>386.1287825576017</v>
+        <v>677.4908892282615</v>
       </c>
       <c r="Y30" t="n">
-        <v>226.7268229214317</v>
+        <v>518.0889295920915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.7440047352622</v>
+        <v>66.62638747126323</v>
       </c>
       <c r="C31" t="n">
-        <v>37.7440047352622</v>
+        <v>66.62638747126323</v>
       </c>
       <c r="D31" t="n">
-        <v>37.7440047352622</v>
+        <v>66.62638747126323</v>
       </c>
       <c r="E31" t="n">
-        <v>37.7440047352622</v>
+        <v>66.62638747126323</v>
       </c>
       <c r="F31" t="n">
-        <v>37.7440047352622</v>
+        <v>66.62638747126323</v>
       </c>
       <c r="G31" t="n">
-        <v>37.7440047352622</v>
+        <v>66.62638747126323</v>
       </c>
       <c r="H31" t="n">
         <v>37.7440047352622</v>
@@ -6648,25 +6648,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S31" t="n">
-        <v>555.7431982281099</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T31" t="n">
-        <v>320.4873493363945</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U31" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V31" t="n">
-        <v>37.7440047352622</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="W31" t="n">
-        <v>37.7440047352622</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="X31" t="n">
-        <v>37.7440047352622</v>
+        <v>66.62638747126323</v>
       </c>
       <c r="Y31" t="n">
-        <v>37.7440047352622</v>
+        <v>66.62638747126323</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>873.114632264678</v>
+        <v>1279.603067784</v>
       </c>
       <c r="C32" t="n">
-        <v>873.114632264678</v>
+        <v>1279.603067784</v>
       </c>
       <c r="D32" t="n">
-        <v>873.114632264678</v>
+        <v>1279.603067784</v>
       </c>
       <c r="E32" t="n">
-        <v>458.7744167815746</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F32" t="n">
-        <v>37.7440047352622</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G32" t="n">
         <v>37.7440047352622</v>
@@ -6700,13 +6700,13 @@
         <v>37.7440047352622</v>
       </c>
       <c r="J32" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987906</v>
       </c>
       <c r="L32" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M32" t="n">
         <v>887.4914597655643</v>
@@ -6715,7 +6715,7 @@
         <v>1187.216805582613</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P32" t="n">
         <v>1687.808675484973</v>
@@ -6733,19 +6733,19 @@
         <v>1887.20023676311</v>
       </c>
       <c r="U32" t="n">
-        <v>1683.979209760215</v>
+        <v>1689.824247448489</v>
       </c>
       <c r="V32" t="n">
-        <v>1683.979209760215</v>
+        <v>1689.824247448489</v>
       </c>
       <c r="W32" t="n">
-        <v>1683.979209760215</v>
+        <v>1689.824247448489</v>
       </c>
       <c r="X32" t="n">
-        <v>1283.335811929167</v>
+        <v>1689.824247448489</v>
       </c>
       <c r="Y32" t="n">
-        <v>1283.335811929167</v>
+        <v>1689.824247448489</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>292.2318919939885</v>
+        <v>518.0889295920915</v>
       </c>
       <c r="C33" t="n">
-        <v>158.2368207429342</v>
+        <v>384.0938583410372</v>
       </c>
       <c r="D33" t="n">
-        <v>158.2368207429342</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E33" t="n">
-        <v>37.7440047352622</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F33" t="n">
         <v>37.7440047352622</v>
@@ -6809,22 +6809,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T33" t="n">
-        <v>1392.479528532446</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U33" t="n">
-        <v>1195.20756139749</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V33" t="n">
-        <v>981.4960343905235</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="W33" t="n">
-        <v>768.2628661268523</v>
+        <v>861.896089104575</v>
       </c>
       <c r="X33" t="n">
-        <v>591.9368842657451</v>
+        <v>685.5701072434679</v>
       </c>
       <c r="Y33" t="n">
-        <v>432.5349246295751</v>
+        <v>658.3919622276782</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.7440047352622</v>
+        <v>80.23455100034454</v>
       </c>
       <c r="C34" t="n">
-        <v>37.7440047352622</v>
+        <v>80.23455100034454</v>
       </c>
       <c r="D34" t="n">
-        <v>37.7440047352622</v>
+        <v>80.23455100034454</v>
       </c>
       <c r="E34" t="n">
-        <v>37.7440047352622</v>
+        <v>80.23455100034454</v>
       </c>
       <c r="F34" t="n">
         <v>37.7440047352622</v>
@@ -6891,19 +6891,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U34" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V34" t="n">
-        <v>37.7440047352622</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="W34" t="n">
-        <v>37.7440047352622</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="X34" t="n">
-        <v>37.7440047352622</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.7440047352622</v>
+        <v>80.23455100034454</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1887.20023676311</v>
+        <v>1476.979057098621</v>
       </c>
       <c r="C35" t="n">
-        <v>1477.07564607638</v>
+        <v>1066.854466411891</v>
       </c>
       <c r="D35" t="n">
-        <v>1072.611716169441</v>
+        <v>1066.854466411891</v>
       </c>
       <c r="E35" t="n">
-        <v>865.2628523008966</v>
+        <v>652.5142509287875</v>
       </c>
       <c r="F35" t="n">
-        <v>444.2324402545842</v>
+        <v>231.4838388824751</v>
       </c>
       <c r="G35" t="n">
         <v>37.7440047352622</v>
@@ -6934,22 +6934,22 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I35" t="n">
-        <v>37.74400473526262</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J35" t="n">
-        <v>151.4749218512235</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987907</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131302</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655647</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N35" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O35" t="n">
         <v>1464.838169622267</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>978.3765703691226</v>
+        <v>326.6649594476208</v>
       </c>
       <c r="C36" t="n">
-        <v>844.3814991180684</v>
+        <v>192.6698881965665</v>
       </c>
       <c r="D36" t="n">
-        <v>727.4843413374608</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="E36" t="n">
-        <v>606.9915253297888</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="F36" t="n">
-        <v>498.0316455122934</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G36" t="n">
-        <v>498.0316455122934</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H36" t="n">
-        <v>498.0316455122934</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I36" t="n">
-        <v>498.5685927704026</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J36" t="n">
-        <v>558.6847198523049</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K36" t="n">
-        <v>693.0854602047134</v>
+        <v>232.7978194276822</v>
       </c>
       <c r="L36" t="n">
-        <v>892.5644708578968</v>
+        <v>432.2768300808657</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.186599082843</v>
+        <v>672.8989583058121</v>
       </c>
       <c r="N36" t="n">
-        <v>1386.012780239293</v>
+        <v>925.7251394622621</v>
       </c>
       <c r="O36" t="n">
-        <v>1608.300325338226</v>
+        <v>1148.012684561194</v>
       </c>
       <c r="P36" t="n">
-        <v>1778.87578566774</v>
+        <v>1318.588144890709</v>
       </c>
       <c r="Q36" t="n">
-        <v>1872.683689066186</v>
+        <v>1412.396048289155</v>
       </c>
       <c r="R36" t="n">
-        <v>1887.20023676311</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="S36" t="n">
-        <v>1887.20023676311</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T36" t="n">
-        <v>1732.688865280234</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="U36" t="n">
-        <v>1535.416898145278</v>
+        <v>1229.640628851122</v>
       </c>
       <c r="V36" t="n">
-        <v>1321.705371138311</v>
+        <v>1015.929101844156</v>
       </c>
       <c r="W36" t="n">
-        <v>1321.705371138311</v>
+        <v>802.6959335804846</v>
       </c>
       <c r="X36" t="n">
-        <v>1278.081562640879</v>
+        <v>626.3699517193775</v>
       </c>
       <c r="Y36" t="n">
-        <v>1118.679603004709</v>
+        <v>466.9679920832075</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>534.3793181946349</v>
+        <v>529.5316178638419</v>
       </c>
       <c r="C37" t="n">
-        <v>363.2859457563515</v>
+        <v>529.5316178638419</v>
       </c>
       <c r="D37" t="n">
-        <v>363.2859457563515</v>
+        <v>529.5316178638419</v>
       </c>
       <c r="E37" t="n">
-        <v>202.3751306246709</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="F37" t="n">
-        <v>37.7440047352622</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G37" t="n">
         <v>37.7440047352622</v>
@@ -7128,19 +7128,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U37" t="n">
-        <v>578.8559946720579</v>
+        <v>529.5316178638419</v>
       </c>
       <c r="V37" t="n">
-        <v>578.8559946720579</v>
+        <v>529.5316178638419</v>
       </c>
       <c r="W37" t="n">
-        <v>578.8559946720579</v>
+        <v>529.5316178638419</v>
       </c>
       <c r="X37" t="n">
-        <v>578.8559946720579</v>
+        <v>529.5316178638419</v>
       </c>
       <c r="Y37" t="n">
-        <v>578.8559946720579</v>
+        <v>529.5316178638419</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1277.578562171617</v>
+        <v>1283.239222951408</v>
       </c>
       <c r="C38" t="n">
-        <v>1277.578562171617</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D38" t="n">
         <v>873.114632264678</v>
@@ -7183,7 +7183,7 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655642</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582613</v>
@@ -7201,25 +7201,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S38" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T38" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U38" t="n">
-        <v>1802.959711252748</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="V38" t="n">
-        <v>1802.959711252748</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="W38" t="n">
-        <v>1687.799741836107</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.799741836107</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="Y38" t="n">
-        <v>1687.799741836107</v>
+        <v>1693.460402615897</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>539.898127711292</v>
+        <v>623.88061763002</v>
       </c>
       <c r="C39" t="n">
-        <v>405.9030564602377</v>
+        <v>489.8855463789657</v>
       </c>
       <c r="D39" t="n">
-        <v>289.0058986796301</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="E39" t="n">
         <v>252.4955725906861</v>
@@ -7283,22 +7283,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T39" t="n">
-        <v>1426.912595986079</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U39" t="n">
-        <v>1229.640628851122</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V39" t="n">
-        <v>1015.929101844156</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W39" t="n">
-        <v>1015.929101844156</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="X39" t="n">
-        <v>839.6031199830486</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="Y39" t="n">
-        <v>680.2011603468786</v>
+        <v>764.1836502656066</v>
       </c>
     </row>
     <row r="40">
@@ -7368,13 +7368,13 @@
         <v>578.8559946720579</v>
       </c>
       <c r="V40" t="n">
-        <v>316.8136692263878</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="W40" t="n">
-        <v>37.74400473526219</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="X40" t="n">
-        <v>37.74400473526219</v>
+        <v>66.62638747126323</v>
       </c>
       <c r="Y40" t="n">
         <v>37.74400473526219</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1392.738531588258</v>
+        <v>856.548150125305</v>
       </c>
       <c r="C41" t="n">
-        <v>982.6139409015283</v>
+        <v>856.548150125305</v>
       </c>
       <c r="D41" t="n">
-        <v>982.6139409015283</v>
+        <v>452.0842202183655</v>
       </c>
       <c r="E41" t="n">
-        <v>865.2628523008966</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F41" t="n">
-        <v>444.2324402545842</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G41" t="n">
         <v>37.74400473526219</v>
@@ -7408,7 +7408,7 @@
         <v>37.74400473526219</v>
       </c>
       <c r="I41" t="n">
-        <v>37.74400473526202</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J41" t="n">
         <v>151.4749218512229</v>
@@ -7420,7 +7420,7 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N41" t="n">
         <v>1187.216805582613</v>
@@ -7438,25 +7438,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S41" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U41" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V41" t="n">
-        <v>1802.959711252748</v>
+        <v>1667.706002841705</v>
       </c>
       <c r="W41" t="n">
-        <v>1802.959711252748</v>
+        <v>1667.706002841705</v>
       </c>
       <c r="X41" t="n">
-        <v>1802.959711252748</v>
+        <v>1667.706002841705</v>
       </c>
       <c r="Y41" t="n">
-        <v>1802.959711252748</v>
+        <v>1266.769329789794</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>623.88061763002</v>
+        <v>292.2318919939885</v>
       </c>
       <c r="C42" t="n">
-        <v>489.8855463789657</v>
+        <v>158.2368207429342</v>
       </c>
       <c r="D42" t="n">
-        <v>372.9883885983581</v>
+        <v>158.2368207429342</v>
       </c>
       <c r="E42" t="n">
-        <v>252.4955725906861</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5356927731907</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G42" t="n">
         <v>37.74400473526219</v>
@@ -7526,16 +7526,16 @@
         <v>1075.129257368246</v>
       </c>
       <c r="V42" t="n">
-        <v>861.4177303612801</v>
+        <v>981.4960343905235</v>
       </c>
       <c r="W42" t="n">
-        <v>861.4177303612801</v>
+        <v>768.2628661268523</v>
       </c>
       <c r="X42" t="n">
-        <v>861.4177303612801</v>
+        <v>591.9368842657451</v>
       </c>
       <c r="Y42" t="n">
-        <v>702.0157707251101</v>
+        <v>432.5349246295751</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>340.5121325317413</v>
+        <v>524.3951366515232</v>
       </c>
       <c r="C43" t="n">
-        <v>340.5121325317413</v>
+        <v>524.3951366515232</v>
       </c>
       <c r="D43" t="n">
-        <v>340.5121325317413</v>
+        <v>364.9004919744332</v>
       </c>
       <c r="E43" t="n">
-        <v>340.5121325317413</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="F43" t="n">
         <v>203.9896768427527</v>
@@ -7602,19 +7602,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U43" t="n">
-        <v>578.8559946720579</v>
+        <v>524.3951366515232</v>
       </c>
       <c r="V43" t="n">
-        <v>578.8559946720579</v>
+        <v>524.3951366515232</v>
       </c>
       <c r="W43" t="n">
-        <v>578.8559946720579</v>
+        <v>524.3951366515232</v>
       </c>
       <c r="X43" t="n">
-        <v>340.5121325317413</v>
+        <v>524.3951366515232</v>
       </c>
       <c r="Y43" t="n">
-        <v>340.5121325317413</v>
+        <v>524.3951366515232</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1557.696430229842</v>
+        <v>1264.577510238774</v>
       </c>
       <c r="C44" t="n">
-        <v>1557.696430229842</v>
+        <v>1264.577510238774</v>
       </c>
       <c r="D44" t="n">
-        <v>1153.232500322903</v>
+        <v>1264.577510238774</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.232500322903</v>
+        <v>850.2372947556707</v>
       </c>
       <c r="F44" t="n">
-        <v>732.2020882765901</v>
+        <v>429.2068827093583</v>
       </c>
       <c r="G44" t="n">
-        <v>325.7136527572681</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H44" t="n">
         <v>37.74400473526219</v>
@@ -7648,13 +7648,13 @@
         <v>37.74400473526219</v>
       </c>
       <c r="J44" t="n">
-        <v>151.4749218512231</v>
+        <v>151.474921851223</v>
       </c>
       <c r="K44" t="n">
         <v>342.4771847987903</v>
       </c>
       <c r="L44" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M44" t="n">
         <v>887.4914597655643</v>
@@ -7675,25 +7675,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S44" t="n">
-        <v>1814.577734083304</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T44" t="n">
-        <v>1814.577734083304</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U44" t="n">
-        <v>1557.696430229842</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="V44" t="n">
-        <v>1557.696430229842</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="W44" t="n">
-        <v>1557.696430229842</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="X44" t="n">
-        <v>1557.696430229842</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="Y44" t="n">
-        <v>1557.696430229842</v>
+        <v>1674.798689903263</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>683.0535714964635</v>
+        <v>172.153587964745</v>
       </c>
       <c r="C45" t="n">
-        <v>549.0585002454092</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="D45" t="n">
-        <v>432.1613424648016</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E45" t="n">
-        <v>311.6685264571296</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F45" t="n">
-        <v>202.7086466396342</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G45" t="n">
-        <v>96.91695860170567</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H45" t="n">
         <v>37.74400473526219</v>
@@ -7757,22 +7757,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T45" t="n">
-        <v>1426.912595986079</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U45" t="n">
-        <v>1229.640628851122</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V45" t="n">
-        <v>1015.929101844156</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W45" t="n">
-        <v>1015.929101844156</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X45" t="n">
-        <v>839.6031199830486</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y45" t="n">
-        <v>823.3566041320502</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.8373771735457</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="C46" t="n">
-        <v>37.74400473526219</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="D46" t="n">
-        <v>37.74400473526219</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="E46" t="n">
-        <v>37.74400473526219</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="F46" t="n">
-        <v>37.74400473526219</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G46" t="n">
         <v>37.74400473526219</v>
@@ -7833,25 +7833,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S46" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="T46" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="U46" t="n">
-        <v>578.8559946720579</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="V46" t="n">
-        <v>578.8559946720579</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="W46" t="n">
-        <v>578.8559946720579</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="X46" t="n">
-        <v>578.8559946720579</v>
+        <v>368.6208027321614</v>
       </c>
       <c r="Y46" t="n">
-        <v>396.5370835675901</v>
+        <v>368.6208027321614</v>
       </c>
     </row>
   </sheetData>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374.8521347175056</v>
+        <v>387.4302944764597</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>374.7565116295233</v>
       </c>
       <c r="D2" t="n">
-        <v>381.730617216486</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>378.9299801779333</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -22564,13 +22564,13 @@
         <v>403.9316432678622</v>
       </c>
       <c r="H2" t="n">
-        <v>300.5346997991465</v>
+        <v>300.5346997991464</v>
       </c>
       <c r="I2" t="n">
-        <v>58.14072082918599</v>
+        <v>58.14072082918591</v>
       </c>
       <c r="J2" t="n">
-        <v>13.11771793070536</v>
+        <v>13.11771793070518</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.43112086737339</v>
+        <v>13.43112086737315</v>
       </c>
       <c r="R2" t="n">
-        <v>42.75293345816469</v>
+        <v>42.75293345816456</v>
       </c>
       <c r="S2" t="n">
-        <v>117.7637690690857</v>
+        <v>117.7637690690856</v>
       </c>
       <c r="T2" t="n">
         <v>216.879204575341</v>
       </c>
       <c r="U2" t="n">
-        <v>223.1663050328874</v>
+        <v>223.166305032887</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>315.0723459665448</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>119.6048474660623</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
@@ -22640,16 +22640,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>74.27383841912771</v>
+        <v>105.5406715694666</v>
       </c>
       <c r="H3" t="n">
-        <v>35.10735041885304</v>
+        <v>66.37418356919194</v>
       </c>
       <c r="I3" t="n">
-        <v>27.23906865305363</v>
+        <v>27.23906865305359</v>
       </c>
       <c r="J3" t="n">
-        <v>15.51103305293355</v>
+        <v>15.51103305293343</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,31 +22670,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.244671795650547</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>35.43542678492479</v>
+        <v>35.43542678492472</v>
       </c>
       <c r="S3" t="n">
-        <v>99.86032094978739</v>
+        <v>99.86032094978738</v>
       </c>
       <c r="T3" t="n">
-        <v>128.6788060351588</v>
+        <v>156.2186326739773</v>
       </c>
       <c r="U3" t="n">
-        <v>164.0854998666839</v>
+        <v>195.3523330170228</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>180.3075785865572</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>143.2958888921568</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>126.541106889469</v>
       </c>
     </row>
     <row r="4">
@@ -22725,34 +22725,34 @@
         <v>145.2823504718546</v>
       </c>
       <c r="I4" t="n">
-        <v>105.6136367610332</v>
+        <v>105.6136367610331</v>
       </c>
       <c r="J4" t="n">
-        <v>28.93685975466222</v>
+        <v>28.93685975466215</v>
       </c>
       <c r="K4" t="n">
-        <v>15.28206119291187</v>
+        <v>15.28206119291175</v>
       </c>
       <c r="L4" t="n">
-        <v>7.321586928322603</v>
+        <v>7.321586928322461</v>
       </c>
       <c r="M4" t="n">
-        <v>6.386652893333256</v>
+        <v>6.386652893333107</v>
       </c>
       <c r="N4" t="n">
-        <v>3.020350146331261</v>
+        <v>3.020350146331111</v>
       </c>
       <c r="O4" t="n">
-        <v>11.09968222972734</v>
+        <v>11.09968222972721</v>
       </c>
       <c r="P4" t="n">
-        <v>17.29577477735975</v>
+        <v>17.29577477735964</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.71515254876333</v>
+        <v>34.71515254876324</v>
       </c>
       <c r="R4" t="n">
-        <v>70.1128508300083</v>
+        <v>70.11285083000826</v>
       </c>
       <c r="S4" t="n">
         <v>178.9826041839656</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>373.0631564976388</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>368.4940403177761</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22795,16 +22795,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637628</v>
       </c>
       <c r="G5" t="n">
-        <v>370.8401668442341</v>
+        <v>403.8959782144399</v>
       </c>
       <c r="H5" t="n">
-        <v>262.6401406086983</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I5" t="n">
-        <v>19.23643939503431</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J5" t="n">
         <v>10.09069110280002</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>101.3706978471443</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>95.12581607645728</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -22877,10 +22877,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>67.99228462148537</v>
+        <v>72.46577771336607</v>
       </c>
       <c r="H6" t="n">
-        <v>28.66058246701624</v>
+        <v>66.1898869291027</v>
       </c>
       <c r="I6" t="n">
         <v>26.58206201150024</v>
@@ -22910,10 +22910,10 @@
         <v>5.808809210202178</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S6" t="n">
-        <v>63.17139506868642</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T6" t="n">
         <v>156.1417168646031</v>
@@ -22931,7 +22931,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>120.2786355777218</v>
       </c>
     </row>
     <row r="7">
@@ -23035,16 +23035,16 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>403.865817831984</v>
+        <v>370.9385210036723</v>
       </c>
       <c r="H8" t="n">
         <v>299.8605650539583</v>
       </c>
       <c r="I8" t="n">
-        <v>15.14482254184468</v>
+        <v>55.60298571248951</v>
       </c>
       <c r="J8" t="n">
-        <v>7.530866342333198</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>70.85814459841581</v>
       </c>
       <c r="T8" t="n">
-        <v>171.1854263791898</v>
+        <v>216.5910537297839</v>
       </c>
       <c r="U8" t="n">
-        <v>254.427872148356</v>
+        <v>209.0222447977619</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>93.49437495863668</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
@@ -23114,7 +23114,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.5054518562984</v>
+        <v>60.0998245057043</v>
       </c>
       <c r="H9" t="n">
         <v>66.03403528675115</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>33.24871511996928</v>
       </c>
       <c r="S9" t="n">
-        <v>53.80050287433556</v>
+        <v>99.20613022492962</v>
       </c>
       <c r="T9" t="n">
         <v>110.671045163727</v>
       </c>
       <c r="U9" t="n">
-        <v>149.9443885800361</v>
+        <v>159.1056456644346</v>
       </c>
       <c r="V9" t="n">
-        <v>208.5787565906703</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>184.3544314471385</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23211,7 +23211,7 @@
         <v>2.931723680530631</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2898797198164544</v>
+        <v>1.7581576027819</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>190.6402558541761</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517532</v>
       </c>
       <c r="G11" t="n">
-        <v>183.6944827100391</v>
+        <v>312.1201506596087</v>
       </c>
       <c r="H11" t="n">
-        <v>74.00791599383143</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
         <v>31.90177044380178</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
-        <v>157.5911075142316</v>
+        <v>254.3786899365281</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>126.782621642788</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>62.85721528991137</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>187.8967967501105</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>100.8715114080947</v>
       </c>
     </row>
     <row r="13">
@@ -23421,10 +23421,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>125.9802708667029</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -23433,13 +23433,13 @@
         <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
-        <v>64.28279038417104</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>7.352495282391885</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>9.150849970123488</v>
       </c>
       <c r="R13" t="n">
         <v>56.38567239618433</v>
@@ -23500,22 +23500,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337739</v>
       </c>
       <c r="E14" t="n">
         <v>190.6402558541761</v>
       </c>
       <c r="F14" t="n">
-        <v>197.2635504517531</v>
+        <v>197.2635504517532</v>
       </c>
       <c r="G14" t="n">
-        <v>241.7673948047532</v>
+        <v>209.8656243609515</v>
       </c>
       <c r="H14" t="n">
-        <v>74.00791599383143</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>62.85721528991137</v>
       </c>
       <c r="I15" t="n">
-        <v>14.70128436951479</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>81.97460197827264</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>187.896796750111</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -23670,13 +23670,13 @@
         <v>164.9543984734636</v>
       </c>
       <c r="H16" t="n">
-        <v>64.28279038417112</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7.352495282391885</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>9.150849970123488</v>
       </c>
       <c r="R16" t="n">
         <v>56.38567239618433</v>
@@ -23715,7 +23715,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>181.4904135994808</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -23734,10 +23734,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>212.6379289566788</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337739</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23746,13 +23746,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>403.2510401841353</v>
+        <v>183.6944827100391</v>
       </c>
       <c r="H17" t="n">
         <v>293.5644734679276</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>31.90177044380179</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U17" t="n">
         <v>34.82213246243199</v>
       </c>
       <c r="V17" t="n">
-        <v>126.782621642788</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>315.0368858776883</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>43.29987613751145</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>105.1765168157536</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.70128436951479</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T18" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>81.97460197827309</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -23895,10 +23895,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>125.980270866703</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23913,7 +23913,7 @@
         <v>96.43258009724633</v>
       </c>
       <c r="J19" t="n">
-        <v>7.352495282391885</v>
+        <v>7.352495282391892</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.150849970123488</v>
+        <v>9.150849970123495</v>
       </c>
       <c r="R19" t="n">
         <v>56.38567239618433</v>
@@ -23943,7 +23943,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T19" t="n">
-        <v>43.26812015802359</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U19" t="n">
         <v>279.9361575053235</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>186.5624103937484</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>186.4667873057664</v>
@@ -23980,7 +23980,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517532</v>
       </c>
       <c r="G20" t="n">
         <v>403.2510401841353</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.3786899365281</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>281.4533671383892</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>337.4078447720123</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>177.3707488472947</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
@@ -24062,13 +24062,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>63.68475111016131</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>64.2660551238222</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9543984734636</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.5679993783892</v>
@@ -24150,7 +24150,7 @@
         <v>96.43258009724633</v>
       </c>
       <c r="J22" t="n">
-        <v>7.352495282391899</v>
+        <v>7.352495282391885</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.150849970123502</v>
+        <v>9.150849970123488</v>
       </c>
       <c r="R22" t="n">
-        <v>56.38567239618434</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S22" t="n">
         <v>173.6621429915595</v>
       </c>
       <c r="T22" t="n">
-        <v>234.4892545020035</v>
+        <v>208.2225186314872</v>
       </c>
       <c r="U22" t="n">
         <v>279.9361575053235</v>
@@ -24192,7 +24192,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>44.73928917493373</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24211,19 +24211,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4235511641288</v>
+        <v>199.6304813133382</v>
       </c>
       <c r="H23" t="n">
-        <v>138.5751145969892</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24341,10 +24341,10 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U24" t="n">
-        <v>2.35031188222704</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>189.5097304430261</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>129.6881973733308</v>
       </c>
       <c r="G25" t="n">
         <v>164.5832153864156</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>15.36192872756655</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24432,7 +24432,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24451,16 +24451,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>374.1717122203639</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>28.62920070225165</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>114.8390972863178</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>73.29368300899469</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>141.7907996174552</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5832153864156</v>
@@ -24651,13 +24651,13 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S28" t="n">
-        <v>144.3117656223143</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24691,7 +24691,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>402.4235511641288</v>
@@ -24733,7 +24733,7 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T29" t="n">
-        <v>61.80028893930816</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>41.61714486619599</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24761,22 +24761,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>84.09228650034089</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>50.60972813379539</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
-        <v>139.2678442953623</v>
+        <v>110.6742853867213</v>
       </c>
       <c r="I31" t="n">
         <v>85.27009235220248</v>
@@ -24888,22 +24888,22 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S31" t="n">
-        <v>144.3117656223143</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>285.0899515417858</v>
@@ -24973,7 +24973,7 @@
         <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
-        <v>53.12367408206137</v>
+        <v>58.91026139345311</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -24982,7 +24982,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25001,13 +25001,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>104.7337711575492</v>
@@ -25049,13 +25049,13 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T33" t="n">
-        <v>118.8775209889507</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>130.9015764741765</v>
       </c>
     </row>
     <row r="34">
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>120.9191738280831</v>
       </c>
       <c r="G34" t="n">
         <v>164.5832153864156</v>
@@ -25131,10 +25131,10 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V34" t="n">
-        <v>15.36192872756644</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25143,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>204.9214380984137</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>210.621115358388</v>
       </c>
       <c r="H35" t="n">
         <v>285.0899515417858</v>
@@ -25238,16 +25238,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>67.0853327336594</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>58.58122432777904</v>
@@ -25286,7 +25286,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>131.3751516300384</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.7907996174552</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>139.2678442953623</v>
@@ -25368,7 +25368,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9159111551209</v>
+        <v>231.084778114987</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T38" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3124908149276</v>
+        <v>62.5100550091876</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>265.9143281337088</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25478,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>83.14266501954076</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T39" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>61.54620074509157</v>
       </c>
     </row>
     <row r="40">
@@ -25608,16 +25608,16 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V40" t="n">
-        <v>11.72498541865991</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>193.8947827164819</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>294.0192356136469</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
         <v>285.0899515417858</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>339.3174189259407</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.54620074509154</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H42" t="n">
         <v>58.58122432777904</v>
@@ -25766,13 +25766,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>118.877520988951</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>27.82758349841589</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9159111551209</v>
+        <v>225.9996617147916</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25851,7 +25851,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>14.87530196977366</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50184260225105</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25949,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.3178193441573</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>141.7238893473198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,10 +26034,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>139.2678442953623</v>
@@ -26073,13 +26073,13 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S46" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9159111551209</v>
+        <v>238.9765052364461</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.9926196316998</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>131896.2777182756</v>
+        <v>131896.2777182759</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415762.4630384311</v>
+        <v>415762.4630384312</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415762.463038431</v>
+        <v>415762.4630384311</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415762.4630384311</v>
+        <v>415762.463038431</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415762.4630384311</v>
+        <v>415762.4630384312</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415762.4630384313</v>
+        <v>415762.4630384312</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>415762.4630384312</v>
+        <v>415762.463038431</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52758.51108731023</v>
+        <v>52758.51108731041</v>
       </c>
       <c r="C2" t="n">
-        <v>55418.76691243185</v>
+        <v>55418.76691243187</v>
       </c>
       <c r="D2" t="n">
-        <v>57981.0278687259</v>
+        <v>57981.02786872595</v>
       </c>
       <c r="E2" t="n">
-        <v>104592.5794565976</v>
+        <v>104592.5794565975</v>
       </c>
       <c r="F2" t="n">
         <v>104592.5794565975</v>
       </c>
       <c r="G2" t="n">
-        <v>104592.5794565976</v>
+        <v>104592.5794565975</v>
       </c>
       <c r="H2" t="n">
         <v>104592.5794565975</v>
@@ -26337,7 +26337,7 @@
         <v>166304.9852153726</v>
       </c>
       <c r="J2" t="n">
-        <v>166304.9852153725</v>
+        <v>166304.9852153726</v>
       </c>
       <c r="K2" t="n">
         <v>166304.9852153726</v>
@@ -26346,16 +26346,16 @@
         <v>166304.9852153726</v>
       </c>
       <c r="M2" t="n">
-        <v>166304.9852153725</v>
+        <v>166304.9852153726</v>
       </c>
       <c r="N2" t="n">
-        <v>166304.9852153725</v>
+        <v>166304.9852153726</v>
       </c>
       <c r="O2" t="n">
         <v>166304.9852153726</v>
       </c>
       <c r="P2" t="n">
-        <v>166304.9852153725</v>
+        <v>166304.9852153726</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180510.4488779363</v>
+        <v>180510.4488779369</v>
       </c>
       <c r="C3" t="n">
-        <v>10101.7923106461</v>
+        <v>10101.79231064548</v>
       </c>
       <c r="D3" t="n">
         <v>8871.778406779136</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>222021.1128848246</v>
+        <v>222021.1128848245</v>
       </c>
       <c r="J3" t="n">
-        <v>8180.779292787244</v>
+        <v>8180.779292787335</v>
       </c>
       <c r="K3" t="n">
-        <v>1611.759716561894</v>
+        <v>1611.759716561775</v>
       </c>
       <c r="L3" t="n">
         <v>1993.426436175281</v>
       </c>
       <c r="M3" t="n">
-        <v>43399.10839049722</v>
+        <v>43399.10839049721</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.57785121589243</v>
+        <v>21.57785121589277</v>
       </c>
       <c r="C4" t="n">
         <v>27.19396146355793</v>
@@ -26426,16 +26426,16 @@
         <v>32.95512399923139</v>
       </c>
       <c r="E4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="F4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="G4" t="n">
         <v>155.650379725</v>
       </c>
       <c r="H4" t="n">
-        <v>155.6503797249999</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="I4" t="n">
         <v>331.9759880256581</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39375.29454046336</v>
+        <v>39375.2945404634</v>
       </c>
       <c r="C5" t="n">
-        <v>39949.45546466368</v>
+        <v>39949.45546466367</v>
       </c>
       <c r="D5" t="n">
-        <v>40591.8881102477</v>
+        <v>40591.88811024769</v>
       </c>
       <c r="E5" t="n">
         <v>20886.45015162826</v>
@@ -26487,10 +26487,10 @@
         <v>20886.45015162826</v>
       </c>
       <c r="H5" t="n">
-        <v>20886.45015162825</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="I5" t="n">
-        <v>40710.12113924291</v>
+        <v>40710.1211392429</v>
       </c>
       <c r="J5" t="n">
         <v>40710.1211392429</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.8101823053</v>
+        <v>-168513.8415571938</v>
       </c>
       <c r="C6" t="n">
-        <v>5340.325175658523</v>
+        <v>3988.595079896753</v>
       </c>
       <c r="D6" t="n">
-        <v>8484.406227699837</v>
+        <v>7145.487436718956</v>
       </c>
       <c r="E6" t="n">
-        <v>-91308.31638455349</v>
+        <v>-92414.17741759513</v>
       </c>
       <c r="F6" t="n">
-        <v>83550.47892524427</v>
+        <v>82444.61789220264</v>
       </c>
       <c r="G6" t="n">
-        <v>83550.4789252443</v>
+        <v>82444.61789220263</v>
       </c>
       <c r="H6" t="n">
-        <v>83550.47892524427</v>
+        <v>82444.61789220263</v>
       </c>
       <c r="I6" t="n">
-        <v>-96758.22479672061</v>
+        <v>-97555.52380096825</v>
       </c>
       <c r="J6" t="n">
-        <v>117082.1087953167</v>
+        <v>116284.809791069</v>
       </c>
       <c r="K6" t="n">
-        <v>123651.1283715421</v>
+        <v>122853.8293672946</v>
       </c>
       <c r="L6" t="n">
-        <v>123269.4616519288</v>
+        <v>122472.162647681</v>
       </c>
       <c r="M6" t="n">
-        <v>81863.77969760672</v>
+        <v>81066.4806933591</v>
       </c>
       <c r="N6" t="n">
-        <v>125262.8880881039</v>
+        <v>124465.5890838563</v>
       </c>
       <c r="O6" t="n">
-        <v>125262.888088104</v>
+        <v>124465.5890838563</v>
       </c>
       <c r="P6" t="n">
-        <v>125262.888088104</v>
+        <v>124465.5890838563</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4528020606771</v>
+        <v>176.4528020606776</v>
       </c>
       <c r="C3" t="n">
         <v>185.3244840994871</v>
@@ -26755,7 +26755,7 @@
         <v>345.7528191377621</v>
       </c>
       <c r="H3" t="n">
-        <v>345.752819137762</v>
+        <v>345.7528191377621</v>
       </c>
       <c r="I3" t="n">
         <v>551.5907128643867</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="C4" t="n">
         <v>37.52930446208646</v>
@@ -26798,10 +26798,10 @@
         <v>45.40562735059407</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="F4" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G4" t="n">
         <v>219.5565574740961</v>
@@ -26810,10 +26810,10 @@
         <v>219.5565574740961</v>
       </c>
       <c r="I4" t="n">
-        <v>471.8000591907776</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="J4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="K4" t="n">
         <v>471.8000591907775</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4528020606771</v>
+        <v>176.4528020606776</v>
       </c>
       <c r="C3" t="n">
-        <v>8.871682038810036</v>
+        <v>8.871682038809496</v>
       </c>
       <c r="D3" t="n">
         <v>7.502395135906255</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>205.8378937266247</v>
+        <v>205.8378937266245</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="C4" t="n">
-        <v>6.262471311747554</v>
+        <v>6.26247131174717</v>
       </c>
       <c r="D4" t="n">
         <v>7.876322888507602</v>
@@ -27035,10 +27035,10 @@
         <v>252.2435017166814</v>
       </c>
       <c r="J4" t="n">
-        <v>31.2668331503388</v>
+        <v>31.26683315033915</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311747747</v>
+        <v>6.262471311747284</v>
       </c>
       <c r="L4" t="n">
         <v>7.876322888507616</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311747554</v>
+        <v>6.26247131174717</v>
       </c>
       <c r="L4" t="n">
         <v>7.876322888507602</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7093579982338771</v>
+        <v>0.7093579982338793</v>
       </c>
       <c r="H2" t="n">
-        <v>7.264712599412696</v>
+        <v>7.264712599412718</v>
       </c>
       <c r="I2" t="n">
-        <v>27.34752422691157</v>
+        <v>27.34752422691166</v>
       </c>
       <c r="J2" t="n">
-        <v>60.20587340260258</v>
+        <v>60.20587340260277</v>
       </c>
       <c r="K2" t="n">
-        <v>90.23299746784262</v>
+        <v>90.23299746784289</v>
       </c>
       <c r="L2" t="n">
-        <v>111.9420123062927</v>
+        <v>111.942012306293</v>
       </c>
       <c r="M2" t="n">
-        <v>124.5570576073844</v>
+        <v>124.5570576073847</v>
       </c>
       <c r="N2" t="n">
-        <v>124.1791239069582</v>
+        <v>124.1791239069586</v>
       </c>
       <c r="O2" t="n">
-        <v>119.5188424249283</v>
+        <v>119.5188424249286</v>
       </c>
       <c r="P2" t="n">
-        <v>102.0065668435294</v>
+        <v>102.0065668435297</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.60268353177865</v>
+        <v>76.60268353177889</v>
       </c>
       <c r="R2" t="n">
-        <v>44.55920935655882</v>
+        <v>44.55920935655896</v>
       </c>
       <c r="S2" t="n">
-        <v>16.16449538475449</v>
+        <v>16.16449538475454</v>
       </c>
       <c r="T2" t="n">
-        <v>3.105214637268799</v>
+        <v>3.105214637268808</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05674863985871016</v>
+        <v>0.05674863985871034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3795399893380602</v>
+        <v>0.3795399893380613</v>
       </c>
       <c r="H3" t="n">
-        <v>3.66555726544916</v>
+        <v>3.665557265449171</v>
       </c>
       <c r="I3" t="n">
-        <v>13.06749524694637</v>
+        <v>13.06749524694641</v>
       </c>
       <c r="J3" t="n">
-        <v>35.85820574706646</v>
+        <v>35.85820574706658</v>
       </c>
       <c r="K3" t="n">
-        <v>61.28738503271649</v>
+        <v>61.28738503271668</v>
       </c>
       <c r="L3" t="n">
-        <v>62.44059185316888</v>
+        <v>62.44059185316884</v>
       </c>
       <c r="M3" t="n">
-        <v>88.83111688875633</v>
+        <v>88.83111688875672</v>
       </c>
       <c r="N3" t="n">
-        <v>84.4602265440889</v>
+        <v>84.46022654408929</v>
       </c>
       <c r="O3" t="n">
-        <v>89.01831215033891</v>
+        <v>89.01831215033928</v>
       </c>
       <c r="P3" t="n">
-        <v>72.47549147280905</v>
+        <v>72.47549147280927</v>
       </c>
       <c r="Q3" t="n">
-        <v>48.44794670918817</v>
+        <v>48.44794670918832</v>
       </c>
       <c r="R3" t="n">
-        <v>23.56477232048062</v>
+        <v>23.56477232048069</v>
       </c>
       <c r="S3" t="n">
-        <v>7.049788837046858</v>
+        <v>7.049788837046879</v>
       </c>
       <c r="T3" t="n">
-        <v>1.529812500884549</v>
+        <v>1.529812500884554</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02496973614066186</v>
+        <v>0.02496973614066194</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3181935774864668</v>
+        <v>0.3181935774864678</v>
       </c>
       <c r="H4" t="n">
-        <v>2.829030170743316</v>
+        <v>2.829030170743325</v>
       </c>
       <c r="I4" t="n">
-        <v>9.568948675683933</v>
+        <v>9.568948675683961</v>
       </c>
       <c r="J4" t="n">
-        <v>22.4962859282932</v>
+        <v>22.49628592829327</v>
       </c>
       <c r="K4" t="n">
-        <v>36.96830836615496</v>
+        <v>36.96830836615507</v>
       </c>
       <c r="L4" t="n">
-        <v>47.3067069655789</v>
+        <v>47.30670696557905</v>
       </c>
       <c r="M4" t="n">
-        <v>49.87828960544679</v>
+        <v>49.87828960544694</v>
       </c>
       <c r="N4" t="n">
-        <v>48.69229536208818</v>
+        <v>48.69229536208833</v>
       </c>
       <c r="O4" t="n">
-        <v>44.97521584326898</v>
+        <v>44.97521584326912</v>
       </c>
       <c r="P4" t="n">
-        <v>38.48406686254503</v>
+        <v>38.48406686254514</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.64437311116224</v>
+        <v>26.64437311116232</v>
       </c>
       <c r="R4" t="n">
-        <v>14.30714031134604</v>
+        <v>14.30714031134609</v>
       </c>
       <c r="S4" t="n">
-        <v>5.545246254923242</v>
+        <v>5.545246254923259</v>
       </c>
       <c r="T4" t="n">
-        <v>1.359554376533085</v>
+        <v>1.359554376533089</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01735601331744367</v>
+        <v>0.01735601331744372</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31372,10 +31372,10 @@
         <v>64.36878802915865</v>
       </c>
       <c r="L6" t="n">
-        <v>86.55177910702935</v>
+        <v>62.16306937768393</v>
       </c>
       <c r="M6" t="n">
-        <v>70.70487847115847</v>
+        <v>95.09358820050389</v>
       </c>
       <c r="N6" t="n">
         <v>90.72269785583646</v>
@@ -31612,10 +31612,10 @@
         <v>90.05560996743537</v>
       </c>
       <c r="M9" t="n">
-        <v>80.98501317707863</v>
+        <v>102.9699110890115</v>
       </c>
       <c r="N9" t="n">
-        <v>98.59902074434406</v>
+        <v>76.6141228324112</v>
       </c>
       <c r="O9" t="n">
         <v>98.68188413096588</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.389961081960851</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H14" t="n">
-        <v>14.23493893063157</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I14" t="n">
-        <v>53.58647461229577</v>
+        <v>53.58647461229579</v>
       </c>
       <c r="J14" t="n">
         <v>117.9712093800749</v>
@@ -32007,28 +32007,28 @@
         <v>219.3462834415373</v>
       </c>
       <c r="M14" t="n">
-        <v>244.0650038328585</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N14" t="n">
-        <v>248.0142307569798</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O14" t="n">
         <v>234.1928052482316</v>
       </c>
       <c r="P14" t="n">
-        <v>199.878141037323</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q14" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472342</v>
+        <v>87.31214281472343</v>
       </c>
       <c r="S14" t="n">
         <v>31.67373815518294</v>
       </c>
       <c r="T14" t="n">
-        <v>6.08455463628363</v>
+        <v>6.084554636283631</v>
       </c>
       <c r="U14" t="n">
         <v>0.1111968865568681</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7436947430510354</v>
+        <v>0.7436947430510356</v>
       </c>
       <c r="H15" t="n">
-        <v>7.182525544729738</v>
+        <v>7.182525544729739</v>
       </c>
       <c r="I15" t="n">
-        <v>25.60527953048521</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J15" t="n">
-        <v>70.26284412308051</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K15" t="n">
         <v>120.0903919074999</v>
@@ -32089,19 +32089,19 @@
         <v>188.4352864300803</v>
       </c>
       <c r="N15" t="n">
-        <v>193.4226077551901</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O15" t="n">
-        <v>176.9438979223224</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P15" t="n">
         <v>142.0130777322631</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.93198158665498</v>
+        <v>94.931981586655</v>
       </c>
       <c r="R15" t="n">
-        <v>46.1743104501336</v>
+        <v>46.17431045013361</v>
       </c>
       <c r="S15" t="n">
         <v>13.81380367026813</v>
@@ -32110,7 +32110,7 @@
         <v>2.997611705543427</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.04892728572704183</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6234886902484233</v>
+        <v>0.6234886902484235</v>
       </c>
       <c r="H16" t="n">
-        <v>5.543381264208713</v>
+        <v>5.543381264208714</v>
       </c>
       <c r="I16" t="n">
         <v>18.75000533947077</v>
@@ -32159,25 +32159,25 @@
         <v>44.08065040056353</v>
       </c>
       <c r="K16" t="n">
-        <v>72.43804964886226</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L16" t="n">
-        <v>92.69576400293379</v>
+        <v>92.6957640029338</v>
       </c>
       <c r="M16" t="n">
-        <v>97.73468623594147</v>
+        <v>97.73468623594148</v>
       </c>
       <c r="N16" t="n">
-        <v>95.41077384501561</v>
+        <v>95.41077384501563</v>
       </c>
       <c r="O16" t="n">
-        <v>88.12729232711354</v>
+        <v>88.12729232711355</v>
       </c>
       <c r="P16" t="n">
-        <v>75.40812304604565</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.20867568980207</v>
+        <v>52.20867568980208</v>
       </c>
       <c r="R16" t="n">
         <v>28.03431874517001</v>
@@ -32189,7 +32189,7 @@
         <v>2.663997131061445</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0340084740135504</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.389961081960852</v>
+        <v>1.389961081960851</v>
       </c>
       <c r="H17" t="n">
-        <v>14.23493893063158</v>
+        <v>14.23493893063157</v>
       </c>
       <c r="I17" t="n">
-        <v>53.58647461229579</v>
+        <v>53.58647461229577</v>
       </c>
       <c r="J17" t="n">
         <v>117.9712093800749</v>
@@ -32244,28 +32244,28 @@
         <v>219.3462834415373</v>
       </c>
       <c r="M17" t="n">
-        <v>244.0650038328586</v>
+        <v>244.0650038328585</v>
       </c>
       <c r="N17" t="n">
-        <v>248.0142307569799</v>
+        <v>248.0142307569798</v>
       </c>
       <c r="O17" t="n">
         <v>234.1928052482316</v>
       </c>
       <c r="P17" t="n">
-        <v>199.8781410373231</v>
+        <v>199.878141037323</v>
       </c>
       <c r="Q17" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472343</v>
+        <v>87.31214281472342</v>
       </c>
       <c r="S17" t="n">
         <v>31.67373815518294</v>
       </c>
       <c r="T17" t="n">
-        <v>6.084554636283631</v>
+        <v>6.08455463628363</v>
       </c>
       <c r="U17" t="n">
         <v>0.1111968865568681</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7436947430510356</v>
+        <v>0.7436947430510354</v>
       </c>
       <c r="H18" t="n">
-        <v>7.182525544729739</v>
+        <v>7.182525544729738</v>
       </c>
       <c r="I18" t="n">
-        <v>25.60527953048522</v>
+        <v>25.60527953048521</v>
       </c>
       <c r="J18" t="n">
-        <v>70.26284412308053</v>
+        <v>70.26284412308051</v>
       </c>
       <c r="K18" t="n">
         <v>120.0903919074999</v>
@@ -32326,19 +32326,19 @@
         <v>188.4352864300803</v>
       </c>
       <c r="N18" t="n">
-        <v>193.4226077551902</v>
+        <v>193.4226077551901</v>
       </c>
       <c r="O18" t="n">
-        <v>176.9438979223225</v>
+        <v>176.9438979223224</v>
       </c>
       <c r="P18" t="n">
         <v>142.0130777322631</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.931981586655</v>
+        <v>94.93198158665498</v>
       </c>
       <c r="R18" t="n">
-        <v>46.17431045013361</v>
+        <v>46.1743104501336</v>
       </c>
       <c r="S18" t="n">
         <v>13.81380367026813</v>
@@ -32347,7 +32347,7 @@
         <v>2.997611705543427</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04892728572704183</v>
+        <v>0.04892728572704182</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6234886902484235</v>
+        <v>0.6234886902484233</v>
       </c>
       <c r="H19" t="n">
-        <v>5.543381264208714</v>
+        <v>5.543381264208713</v>
       </c>
       <c r="I19" t="n">
         <v>18.75000533947077</v>
@@ -32396,25 +32396,25 @@
         <v>44.08065040056353</v>
       </c>
       <c r="K19" t="n">
-        <v>72.43804964886228</v>
+        <v>72.43804964886226</v>
       </c>
       <c r="L19" t="n">
-        <v>92.6957640029338</v>
+        <v>92.69576400293379</v>
       </c>
       <c r="M19" t="n">
-        <v>97.73468623594148</v>
+        <v>97.73468623594147</v>
       </c>
       <c r="N19" t="n">
-        <v>95.41077384501563</v>
+        <v>95.41077384501561</v>
       </c>
       <c r="O19" t="n">
-        <v>88.12729232711355</v>
+        <v>88.12729232711354</v>
       </c>
       <c r="P19" t="n">
-        <v>75.40812304604566</v>
+        <v>75.40812304604565</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.20867568980208</v>
+        <v>52.20867568980207</v>
       </c>
       <c r="R19" t="n">
         <v>28.03431874517001</v>
@@ -32426,7 +32426,7 @@
         <v>2.663997131061445</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03400847401355041</v>
+        <v>0.0340084740135504</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.389961081960851</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H20" t="n">
-        <v>14.23493893063157</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I20" t="n">
-        <v>53.58647461229577</v>
+        <v>53.58647461229579</v>
       </c>
       <c r="J20" t="n">
         <v>117.9712093800749</v>
@@ -32478,31 +32478,31 @@
         <v>176.8082619794778</v>
       </c>
       <c r="L20" t="n">
-        <v>219.3462834415372</v>
+        <v>219.3462834415373</v>
       </c>
       <c r="M20" t="n">
-        <v>244.0650038328585</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N20" t="n">
-        <v>248.0142307569798</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O20" t="n">
         <v>234.1928052482316</v>
       </c>
       <c r="P20" t="n">
-        <v>199.878141037323</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q20" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R20" t="n">
-        <v>87.3121428147234</v>
+        <v>87.31214281472343</v>
       </c>
       <c r="S20" t="n">
-        <v>31.67373815518293</v>
+        <v>31.67373815518294</v>
       </c>
       <c r="T20" t="n">
-        <v>6.084554636283629</v>
+        <v>6.084554636283631</v>
       </c>
       <c r="U20" t="n">
         <v>0.1111968865568681</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7436947430510353</v>
+        <v>0.7436947430510356</v>
       </c>
       <c r="H21" t="n">
-        <v>7.182525544729737</v>
+        <v>7.182525544729739</v>
       </c>
       <c r="I21" t="n">
-        <v>25.60527953048521</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J21" t="n">
-        <v>70.2628441230805</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K21" t="n">
-        <v>120.0903919074998</v>
+        <v>120.0903919074999</v>
       </c>
       <c r="L21" t="n">
         <v>161.4763519944803</v>
@@ -32563,28 +32563,28 @@
         <v>188.4352864300803</v>
       </c>
       <c r="N21" t="n">
-        <v>193.4226077551901</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O21" t="n">
-        <v>176.9438979223224</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P21" t="n">
-        <v>142.013077732263</v>
+        <v>142.0130777322631</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.93198158665497</v>
+        <v>94.931981586655</v>
       </c>
       <c r="R21" t="n">
-        <v>46.1743104501336</v>
+        <v>46.17431045013361</v>
       </c>
       <c r="S21" t="n">
-        <v>13.81380367026812</v>
+        <v>13.81380367026813</v>
       </c>
       <c r="T21" t="n">
-        <v>2.997611705543426</v>
+        <v>2.997611705543427</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.04892728572704183</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6234886902484232</v>
+        <v>0.6234886902484235</v>
       </c>
       <c r="H22" t="n">
-        <v>5.543381264208712</v>
+        <v>5.543381264208714</v>
       </c>
       <c r="I22" t="n">
         <v>18.75000533947077</v>
       </c>
       <c r="J22" t="n">
-        <v>44.08065040056352</v>
+        <v>44.08065040056353</v>
       </c>
       <c r="K22" t="n">
-        <v>72.43804964886225</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L22" t="n">
-        <v>92.69576400293377</v>
+        <v>92.6957640029338</v>
       </c>
       <c r="M22" t="n">
-        <v>97.73468623594145</v>
+        <v>97.73468623594148</v>
       </c>
       <c r="N22" t="n">
-        <v>95.4107738450156</v>
+        <v>95.41077384501563</v>
       </c>
       <c r="O22" t="n">
-        <v>88.12729232711352</v>
+        <v>88.12729232711355</v>
       </c>
       <c r="P22" t="n">
-        <v>75.40812304604563</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.20867568980206</v>
+        <v>52.20867568980208</v>
       </c>
       <c r="R22" t="n">
-        <v>28.03431874517</v>
+        <v>28.03431874517001</v>
       </c>
       <c r="S22" t="n">
-        <v>10.86570744732933</v>
+        <v>10.86570744732934</v>
       </c>
       <c r="T22" t="n">
-        <v>2.663997131061444</v>
+        <v>2.663997131061445</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03400847401355039</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34371,7 +34371,7 @@
         <v>188.2033055918542</v>
       </c>
       <c r="K44" t="n">
-        <v>282.0679684081336</v>
+        <v>282.0679684081335</v>
       </c>
       <c r="L44" t="n">
         <v>349.9302569662179</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.096607794625498</v>
+        <v>1.096607794625768</v>
       </c>
       <c r="L2" t="n">
-        <v>16.45661424344785</v>
+        <v>16.45661424344819</v>
       </c>
       <c r="M2" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="N2" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="O2" t="n">
-        <v>26.32906679914514</v>
+        <v>26.32906679914549</v>
       </c>
       <c r="P2" t="n">
-        <v>8.357203562645239</v>
+        <v>8.357203562645552</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.461602248101102</v>
+        <v>5.461602248101286</v>
       </c>
       <c r="L3" t="n">
-        <v>6.326068042319826</v>
+        <v>6.326068042319786</v>
       </c>
       <c r="M3" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="N3" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="O3" t="n">
-        <v>31.26683315033891</v>
+        <v>31.26683315033929</v>
       </c>
       <c r="P3" t="n">
-        <v>18.21585647000531</v>
+        <v>18.21585647000552</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>8.543005244543259</v>
       </c>
       <c r="L6" t="n">
-        <v>30.4372552961803</v>
+        <v>6.048545566834875</v>
       </c>
       <c r="M6" t="n">
-        <v>13.14059473274104</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="N6" t="n">
         <v>37.52930446208646</v>
@@ -35260,10 +35260,10 @@
         <v>33.94108615658632</v>
       </c>
       <c r="M9" t="n">
+        <v>45.40562735059407</v>
+      </c>
+      <c r="N9" t="n">
         <v>23.4207294386612</v>
-      </c>
-      <c r="N9" t="n">
-        <v>45.40562735059407</v>
       </c>
       <c r="O9" t="n">
         <v>40.93040513096589</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.64761804676698</v>
+        <v>44.64761804676699</v>
       </c>
       <c r="K14" t="n">
-        <v>87.67187230626068</v>
+        <v>87.67187230626071</v>
       </c>
       <c r="L14" t="n">
-        <v>123.8608853786924</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M14" t="n">
         <v>150.7747793758131</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.8936053230805</v>
+        <v>18.89360532308051</v>
       </c>
       <c r="K15" t="n">
-        <v>64.26460912288448</v>
+        <v>64.26460912288451</v>
       </c>
       <c r="L15" t="n">
-        <v>105.3618281836312</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M15" t="n">
         <v>130.8710026916629</v>
       </c>
       <c r="N15" t="n">
-        <v>140.2292143614401</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1924189223224</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P15" t="n">
-        <v>87.75344272945932</v>
+        <v>87.75344272945935</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.23936308181626</v>
+        <v>38.23936308181628</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.18768008979544</v>
+        <v>20.18768008979545</v>
       </c>
       <c r="L16" t="n">
-        <v>38.06747010903228</v>
+        <v>38.06747010903229</v>
       </c>
       <c r="M16" t="n">
-        <v>41.46974373716142</v>
+        <v>41.46974373716144</v>
       </c>
       <c r="N16" t="n">
-        <v>43.69812833659617</v>
+        <v>43.69812833659618</v>
       </c>
       <c r="O16" t="n">
-        <v>32.05239425411721</v>
+        <v>32.05239425411722</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62828140614086</v>
+        <v>19.62828140614088</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.64761804676699</v>
+        <v>44.64761804676698</v>
       </c>
       <c r="K17" t="n">
-        <v>87.67187230626071</v>
+        <v>87.67187230626068</v>
       </c>
       <c r="L17" t="n">
-        <v>123.8608853786925</v>
+        <v>123.8608853786924</v>
       </c>
       <c r="M17" t="n">
         <v>150.7747793758131</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.89360532308051</v>
+        <v>18.8936053230805</v>
       </c>
       <c r="K18" t="n">
-        <v>64.26460912288451</v>
+        <v>64.26460912288448</v>
       </c>
       <c r="L18" t="n">
-        <v>105.3618281836313</v>
+        <v>105.3618281836312</v>
       </c>
       <c r="M18" t="n">
         <v>130.8710026916629</v>
       </c>
       <c r="N18" t="n">
-        <v>140.2292143614402</v>
+        <v>140.2292143614401</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1924189223225</v>
+        <v>119.1924189223224</v>
       </c>
       <c r="P18" t="n">
-        <v>87.75344272945935</v>
+        <v>87.75344272945932</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.23936308181628</v>
+        <v>38.23936308181626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.18768008979545</v>
+        <v>20.18768008979544</v>
       </c>
       <c r="L19" t="n">
-        <v>38.06747010903229</v>
+        <v>38.06747010903228</v>
       </c>
       <c r="M19" t="n">
-        <v>41.46974373716144</v>
+        <v>41.46974373716142</v>
       </c>
       <c r="N19" t="n">
-        <v>43.69812833659618</v>
+        <v>43.69812833659617</v>
       </c>
       <c r="O19" t="n">
-        <v>32.05239425411722</v>
+        <v>32.05239425411721</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62828140614088</v>
+        <v>19.62828140614086</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.64761804676696</v>
+        <v>44.64761804676699</v>
       </c>
       <c r="K20" t="n">
-        <v>87.67187230626065</v>
+        <v>87.67187230626071</v>
       </c>
       <c r="L20" t="n">
-        <v>123.8608853786924</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M20" t="n">
-        <v>150.774779375813</v>
+        <v>150.7747793758131</v>
       </c>
       <c r="N20" t="n">
         <v>155.1019400003605</v>
       </c>
       <c r="O20" t="n">
-        <v>141.0030296224484</v>
+        <v>141.0030296224485</v>
       </c>
       <c r="P20" t="n">
         <v>106.2287777564389</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.06635539044794</v>
+        <v>60.06635539044797</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.89360532308049</v>
+        <v>18.89360532308051</v>
       </c>
       <c r="K21" t="n">
-        <v>64.26460912288445</v>
+        <v>64.26460912288451</v>
       </c>
       <c r="L21" t="n">
-        <v>105.3618281836312</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M21" t="n">
-        <v>130.8710026916628</v>
+        <v>130.8710026916629</v>
       </c>
       <c r="N21" t="n">
-        <v>140.2292143614401</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O21" t="n">
-        <v>119.1924189223224</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P21" t="n">
-        <v>87.75344272945929</v>
+        <v>87.75344272945935</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.23936308181625</v>
+        <v>38.23936308181628</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.18768008979542</v>
+        <v>20.18768008979545</v>
       </c>
       <c r="L22" t="n">
-        <v>38.06747010903226</v>
+        <v>38.06747010903229</v>
       </c>
       <c r="M22" t="n">
-        <v>41.46974373716141</v>
+        <v>41.46974373716144</v>
       </c>
       <c r="N22" t="n">
-        <v>43.69812833659616</v>
+        <v>43.69812833659618</v>
       </c>
       <c r="O22" t="n">
-        <v>32.0523942541172</v>
+        <v>32.05239425411722</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62828140614085</v>
+        <v>19.62828140614088</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>114.8797142585463</v>
       </c>
       <c r="K44" t="n">
-        <v>192.9315787349165</v>
+        <v>192.9315787349164</v>
       </c>
       <c r="L44" t="n">
         <v>254.4448589033731</v>
